--- a/leverageTable.xlsx
+++ b/leverageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a206622245/Documents/GitHub/IndexForecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE002DD-BC01-F94C-8B19-E0500FE2382A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E228A57-412E-3F49-8259-7BBC78C34595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="1160" windowWidth="28040" windowHeight="17440" xr2:uid="{8CA9F032-7142-D241-A84E-279F3DBA4B8E}"/>
   </bookViews>
